--- a/mf-intelligence/data/processed/quant/quant_Large_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Large_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.160866</v>
+        <v>9.524645</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5093</v>
+        <v>4.248292</v>
       </c>
       <c r="F2" t="n">
-        <v>8.439721</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3484339999999992</v>
+        <v>5.276352999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.278855</v>
+        <v>9.524645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.783385</v>
+        <v>6.647131</v>
       </c>
       <c r="E3" t="n">
-        <v>3.717673</v>
+        <v>7.160866</v>
       </c>
       <c r="F3" t="n">
-        <v>2.121379</v>
+        <v>7.5093</v>
       </c>
       <c r="G3" t="n">
-        <v>3.065712</v>
+        <v>-0.5137350000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>4.662006</v>
+        <v>-0.8621689999999997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.552259</v>
+        <v>6.570486</v>
       </c>
       <c r="E4" t="n">
-        <v>6.726065</v>
+        <v>6.783385</v>
       </c>
       <c r="F4" t="n">
-        <v>6.881548</v>
+        <v>3.717673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1738059999999999</v>
+        <v>-0.2128990000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.3292890000000002</v>
+        <v>2.852813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Larsen &amp; Toubro Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.467422</v>
+        <v>6.492715</v>
       </c>
       <c r="E5" t="n">
-        <v>6.694079</v>
+        <v>6.552259</v>
       </c>
       <c r="F5" t="n">
-        <v>6.556828</v>
+        <v>6.726065</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.226657</v>
+        <v>-0.05954400000000071</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.089406</v>
+        <v>-0.2333500000000006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Wipro Ltd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.46674</v>
+        <v>6.333261</v>
       </c>
       <c r="E6" t="n">
-        <v>4.47138</v>
+        <v>1.315464</v>
       </c>
       <c r="F6" t="n">
-        <v>4.52653</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9953599999999998</v>
+        <v>5.017797</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9402099999999995</v>
+        <v>6.333261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE180C01042</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Capri Global Capital Limited</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.400079</v>
+        <v>5.778583</v>
       </c>
       <c r="E7" t="n">
-        <v>5.723489</v>
+        <v>5.46674</v>
       </c>
       <c r="F7" t="n">
-        <v>6.379913</v>
+        <v>4.47138</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.32341</v>
+        <v>0.3118430000000005</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.9798340000000003</v>
+        <v>1.307203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE180C01042</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Capri Global Capital Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.352441</v>
+        <v>5.340977</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.400079</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5.723489</v>
       </c>
       <c r="G8" t="n">
-        <v>5.352441</v>
+        <v>-0.05910200000000021</v>
       </c>
       <c r="H8" t="n">
-        <v>5.352441</v>
+        <v>-0.3825120000000002</v>
       </c>
     </row>
     <row r="9">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>4.561892</v>
+      </c>
+      <c r="E9" t="n">
         <v>5.280076</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.549002</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.986959</v>
-      </c>
       <c r="G9" t="n">
-        <v>1.731074</v>
+        <v>-0.7181839999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1.293117</v>
+        <v>1.01289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE040A01034</t>
+          <t>INE081A01020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited</t>
+          <t>Tata Steel Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.248292</v>
+        <v>3.770239</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.248292</v>
+        <v>3.770239</v>
       </c>
       <c r="H10" t="n">
-        <v>4.248292</v>
+        <v>3.770239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.664461</v>
+        <v>3.494795</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7282999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.744428</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.936161</v>
+        <v>3.494795</v>
       </c>
       <c r="H11" t="n">
-        <v>2.920033</v>
+        <v>3.494795</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE721A01047</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Shriram Finance Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.86426</v>
+        <v>3.0942</v>
       </c>
       <c r="E12" t="n">
-        <v>3.062809</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.169896</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1985490000000003</v>
+        <v>3.0942</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3056360000000002</v>
+        <v>3.0942</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE127D01025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>HDFC Asset Management Company Ltd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.790467</v>
+        <v>2.923392</v>
       </c>
       <c r="E13" t="n">
-        <v>3.025636</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.266317</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.235169</v>
+        <v>2.923392</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4758499999999999</v>
+        <v>2.923392</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Adani Energy Solutions Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.586883</v>
+        <v>1.941136</v>
       </c>
       <c r="E14" t="n">
-        <v>3.09525</v>
+        <v>2.165844</v>
       </c>
       <c r="F14" t="n">
-        <v>1.663846</v>
+        <v>2.159664</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.5083670000000002</v>
+        <v>-0.2247079999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9230369999999999</v>
+        <v>-0.2185279999999998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE931S01010</t>
+          <t>INE361B01024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adani Energy Solutions Limited</t>
+          <t>Divi's Laboratories Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.165844</v>
+        <v>1.659238</v>
       </c>
       <c r="E15" t="n">
-        <v>2.159664</v>
+        <v>1.703457</v>
       </c>
       <c r="F15" t="n">
-        <v>2.212073</v>
+        <v>1.777809</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006180000000000074</v>
+        <v>-0.04421900000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0462290000000003</v>
+        <v>-0.118571</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE376G01013</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Biocon Ltd</t>
+          <t>Coal India Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.966529</v>
+        <v>1.572124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -949,21 +949,21 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.966529</v>
+        <v>1.572124</v>
       </c>
       <c r="H16" t="n">
-        <v>1.966529</v>
+        <v>1.572124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE361B01024</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Divi's Laboratories Limited</t>
+          <t>HDFC Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.703457</v>
+        <v>1.28475</v>
       </c>
       <c r="E17" t="n">
-        <v>1.777809</v>
+        <v>1.280721</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.344605</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.07435199999999997</v>
+        <v>0.00402900000000006</v>
       </c>
       <c r="H17" t="n">
-        <v>1.703457</v>
+        <v>-0.05985499999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE075A01022</t>
+          <t>INE030A01027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wipro Ltd</t>
+          <t>Hindustan Unilever Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.315464</v>
+        <v>1.235199</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1013,21 +1013,21 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.315464</v>
+        <v>1.235199</v>
       </c>
       <c r="H18" t="n">
-        <v>1.315464</v>
+        <v>1.235199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE259A01022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>Colgate-Palmolive (India) Ltd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.314734</v>
+        <v>0.433308</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1045,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.314734</v>
+        <v>0.433308</v>
       </c>
       <c r="H19" t="n">
-        <v>1.314734</v>
+        <v>0.433308</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Co Ltd</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.280721</v>
+        <v>0.000201</v>
       </c>
       <c r="E20" t="n">
-        <v>1.344605</v>
+        <v>5.467422</v>
       </c>
       <c r="F20" t="n">
-        <v>1.329927</v>
+        <v>6.694079</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.06388400000000005</v>
+        <v>-5.467221</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.04920600000000008</v>
+        <v>-6.693878000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Ltd</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.03521</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.048766</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.076474</v>
+        <v>0.960086</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01355600000000012</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.04126399999999997</v>
+        <v>-0.960086</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE376G01013</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>Biocon Ltd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.925193</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.966529</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.925193</v>
+        <v>-1.966529</v>
       </c>
       <c r="H22" t="n">
-        <v>0.925193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1167,27 +1167,27 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>4.990335</v>
+        <v>3.664461</v>
       </c>
       <c r="F23" t="n">
-        <v>7.689134</v>
+        <v>0.7282999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.990335</v>
+        <v>-3.664461</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.689134</v>
+        <v>-0.7282999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE030A01027</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hindustan Unilever Limited</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1202,24 +1202,24 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.370297</v>
+        <v>0.174832</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.370297</v>
+        <v>-0.174832</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1231,27 +1231,27 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.7022</v>
+        <v>2.586883</v>
       </c>
       <c r="F25" t="n">
-        <v>3.529967</v>
+        <v>3.09525</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.7022</v>
+        <v>-2.586883</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.529967</v>
+        <v>-3.09525</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Tata Consumer Products Ltd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1263,27 +1263,27 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.174832</v>
+        <v>1.03521</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.048766</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.174832</v>
+        <v>-1.03521</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.048766</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE182D01020</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Marathon Nextgen Realty Limited</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1295,16 +1295,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5.352441</v>
       </c>
       <c r="F27" t="n">
-        <v>1.939091</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>-5.352441</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.939091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1327,27 +1327,27 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.145225</v>
       </c>
-      <c r="F28" t="n">
-        <v>1.323477</v>
-      </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>-1.145225</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-1.323477</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1359,27 +1359,27 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.86426</v>
       </c>
       <c r="F29" t="n">
-        <v>2.269491</v>
+        <v>3.062809</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-2.86426</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.269491</v>
+        <v>-3.062809</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,27 +1391,27 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.960086</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.996776</v>
+        <v>4.990335</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.960086</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.996776</v>
+        <v>-4.990335</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GAIL (India) Limited</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1423,27 +1423,27 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.314734</v>
       </c>
       <c r="F31" t="n">
-        <v>1.533834</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-1.314734</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.533834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE860A01027</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>HCL Technologies Limited</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1455,16 +1455,80 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.925193</v>
       </c>
       <c r="F32" t="n">
-        <v>1.316779</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-0.925193</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.316779</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>INE044A01036</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sun Pharmaceutical Industries Limited</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.7022</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-3.7022</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>INE271C01023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DLF Limited</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.790467</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.025636</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-2.790467</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-3.025636</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Large_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Large_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,19 +496,24 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.524645</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4.248292</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.276352999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>9.524645</v>
       </c>
     </row>
@@ -523,20 +533,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>6.647131</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7.160866</v>
       </c>
-      <c r="F3" t="n">
-        <v>7.5093</v>
-      </c>
       <c r="G3" t="n">
+        <v>8.439721</v>
+      </c>
+      <c r="H3" t="n">
         <v>-0.5137350000000005</v>
       </c>
-      <c r="H3" t="n">
-        <v>-0.8621689999999997</v>
+      <c r="I3" t="n">
+        <v>-1.792590000000001</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>6.570486</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.783385</v>
       </c>
-      <c r="F4" t="n">
-        <v>3.717673</v>
-      </c>
       <c r="G4" t="n">
+        <v>2.121379</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.2128990000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.852813</v>
+      <c r="I4" t="n">
+        <v>4.449107</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>6.492715</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.552259</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.726065</v>
-      </c>
       <c r="G5" t="n">
+        <v>6.881548</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.05954400000000071</v>
       </c>
-      <c r="H5" t="n">
-        <v>-0.2333500000000006</v>
+      <c r="I5" t="n">
+        <v>-0.3888330000000009</v>
       </c>
     </row>
     <row r="6">
@@ -619,19 +644,24 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>6.333261</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.315464</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.017797</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>6.333261</v>
       </c>
     </row>
@@ -651,20 +681,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>5.778583</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.46674</v>
       </c>
-      <c r="F7" t="n">
-        <v>4.47138</v>
-      </c>
       <c r="G7" t="n">
+        <v>4.52653</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3118430000000005</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.307203</v>
+      <c r="I7" t="n">
+        <v>1.252053</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.340977</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.400079</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.723489</v>
-      </c>
       <c r="G8" t="n">
+        <v>6.379913</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.05910200000000021</v>
       </c>
-      <c r="H8" t="n">
-        <v>-0.3825120000000002</v>
+      <c r="I8" t="n">
+        <v>-1.038936000000001</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>4.561892</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.280076</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.549002</v>
-      </c>
       <c r="G9" t="n">
+        <v>3.986959</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.7181839999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.01289</v>
+      <c r="I9" t="n">
+        <v>0.5749330000000001</v>
       </c>
     </row>
     <row r="10">
@@ -747,21 +792,26 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.770239</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.770239</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>3.770239</v>
       </c>
+      <c r="I10" t="n">
+        <v>3.770239</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -779,21 +829,26 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>3.494795</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.494795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>3.494795</v>
       </c>
+      <c r="I11" t="n">
+        <v>3.494795</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -811,21 +866,26 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>3.0942</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.0942</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>3.0942</v>
       </c>
+      <c r="I12" t="n">
+        <v>3.0942</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -843,21 +903,26 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.923392</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.923392</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>2.923392</v>
       </c>
+      <c r="I13" t="n">
+        <v>2.923392</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,20 +940,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.941136</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.165844</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.159664</v>
-      </c>
       <c r="G14" t="n">
+        <v>2.212073</v>
+      </c>
+      <c r="H14" t="n">
         <v>-0.2247079999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>-0.2185279999999998</v>
+      <c r="I14" t="n">
+        <v>-0.2709370000000002</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.659238</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.703457</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.777809</v>
-      </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>-0.04421900000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>-0.118571</v>
+      <c r="I15" t="n">
+        <v>1.659238</v>
       </c>
     </row>
     <row r="16">
@@ -939,21 +1014,26 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1.572124</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.572124</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1.572124</v>
       </c>
+      <c r="I16" t="n">
+        <v>1.572124</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -971,20 +1051,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.28475</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.280721</v>
       </c>
-      <c r="F17" t="n">
-        <v>1.344605</v>
-      </c>
       <c r="G17" t="n">
+        <v>1.329927</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.00402900000000006</v>
       </c>
-      <c r="H17" t="n">
-        <v>-0.05985499999999999</v>
+      <c r="I17" t="n">
+        <v>-0.04517700000000002</v>
       </c>
     </row>
     <row r="18">
@@ -1003,21 +1088,26 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.235199</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.235199</v>
+        <v>2.370297</v>
       </c>
       <c r="H18" t="n">
         <v>1.235199</v>
       </c>
+      <c r="I18" t="n">
+        <v>-1.135098</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1035,21 +1125,26 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>0.433308</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.433308</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0.433308</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.433308</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1067,31 +1162,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>0.000201</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>5.467422</v>
       </c>
-      <c r="F20" t="n">
-        <v>6.694079</v>
-      </c>
       <c r="G20" t="n">
+        <v>6.556828</v>
+      </c>
+      <c r="H20" t="n">
         <v>-5.467221</v>
       </c>
-      <c r="H20" t="n">
-        <v>-6.693878000000001</v>
+      <c r="I20" t="n">
+        <v>-6.556627000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,31 +1199,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.960086</v>
+        <v>3.664461</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.744428</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.960086</v>
+        <v>-3.664461</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.744428</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE376G01013</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Biocon Ltd</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1131,31 +1236,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>1.966529</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.352441</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.966529</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>-5.352441</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>Sun Pharmaceutical Industries Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1163,31 +1273,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>3.664461</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7282999999999999</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.664461</v>
+        <v>3.529967</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.7282999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-3.529967</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE860A01027</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>HCL Technologies Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1195,31 +1310,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.174832</v>
+        <v>0.925193</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.174832</v>
+        <v>-0.925193</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1227,31 +1347,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>2.586883</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.09525</v>
+        <v>1.314734</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.586883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.09525</v>
+        <v>-1.314734</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Ltd</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,31 +1384,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>1.03521</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.048766</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.03521</v>
+        <v>7.689134</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.048766</v>
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-7.689134</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1291,20 +1421,25 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>5.352441</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.86426</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.352441</v>
+        <v>3.169896</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-2.86426</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-3.169896</v>
       </c>
     </row>
     <row r="28">
@@ -1323,31 +1458,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.145225</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.323477</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.145225</v>
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1.323477</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1355,31 +1495,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>2.86426</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3.062809</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.86426</v>
+        <v>2.269491</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.062809</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-2.269491</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1387,31 +1532,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4.990335</v>
+        <v>2.790467</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.266317</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.990335</v>
+        <v>-2.790467</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-3.266317</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1419,31 +1569,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>1.314734</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.586883</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.314734</v>
+        <v>1.663846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-2.586883</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1.663846</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE129A01019</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>GAIL (India) Limited</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1451,31 +1606,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E32" t="n">
-        <v>0.925193</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.925193</v>
+        <v>1.533834</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1.533834</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE376G01013</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
+          <t>Biocon Ltd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1483,31 +1643,36 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3.7022</v>
+        <v>1.966529</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.7022</v>
+        <v>-1.966529</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE182D01020</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Marathon Nextgen Realty Limited</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1515,20 +1680,136 @@
           <t>quant Large Cap Fund</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E34" t="n">
-        <v>2.790467</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.025636</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.790467</v>
+        <v>1.939091</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.025636</v>
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1.939091</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>INE192A01025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tata Consumer Products Ltd</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.03521</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.076474</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1.03521</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-1.076474</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>INE296A01032</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Limited</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.996776</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.996776</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>INE245A01021</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Tata Power Company Limited</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.316779</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-1.316779</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Large_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Large_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.524645</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>4.248292</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>5.276352999999999</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>9.524645</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6.647131</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>7.160866</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8.439721</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-0.5137350000000005</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-1.792590000000001</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6.570486</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6.783385</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>2.121379</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-0.2128990000000002</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4.449107</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.492715</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>6.552259</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>6.881548</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.05954400000000071</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.3888330000000009</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.333261</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>1.315464</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>5.017797</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>6.333261</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.778583</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.46674</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>4.52653</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.3118430000000005</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1.252053</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.340977</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>5.400079</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>6.379913</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-0.05910200000000021</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-1.038936000000001</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.561892</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.280076</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.986959</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-0.7181839999999999</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.5749330000000001</v>
       </c>
     </row>
@@ -789,29 +834,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Ferrous Metals</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.770239</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.770239</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>3.770239</v>
       </c>
+      <c r="J10" t="n">
+        <v>3.770239</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -826,29 +876,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.494795</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.494795</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>3.494795</v>
       </c>
+      <c r="J11" t="n">
+        <v>3.494795</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -863,29 +918,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.0942</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0942</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>3.0942</v>
       </c>
+      <c r="J12" t="n">
+        <v>3.0942</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -900,29 +960,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.923392</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.923392</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>2.923392</v>
       </c>
+      <c r="J13" t="n">
+        <v>2.923392</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.941136</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>2.165844</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.212073</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-0.2247079999999999</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>-0.2709370000000002</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.659238</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.703457</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>-0.04421900000000001</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1.659238</v>
       </c>
     </row>
@@ -1011,29 +1086,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Consumable Fuels</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.572124</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.572124</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>1.572124</v>
       </c>
+      <c r="J16" t="n">
+        <v>1.572124</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.28475</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1.280721</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1.329927</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0.00402900000000006</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-0.04517700000000002</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.235199</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.370297</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1.235199</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-1.135098</v>
       </c>
     </row>
@@ -1122,29 +1212,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.433308</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.433308</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0.433308</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.433308</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.000201</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>5.467422</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>6.556828</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-5.467221</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-6.556627000000001</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>3.664461</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.744428</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-3.664461</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-0.744428</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>5.352441</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>-5.352441</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.529967</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>-3.529967</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.925193</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>-0.925193</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.314734</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>-1.314734</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>7.689134</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>-7.689134</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.86426</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>3.169896</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>-2.86426</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>-3.169896</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.323477</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>-1.323477</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.269491</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>-2.269491</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.790467</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>3.266317</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>-2.790467</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>-3.266317</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>2.586883</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>1.663846</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>-2.586883</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>-1.663846</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.533834</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>-1.533834</v>
       </c>
     </row>
@@ -1640,27 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.966529</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>-1.966529</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1677,27 +1842,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.939091</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>-1.939091</v>
       </c>
     </row>
@@ -1714,27 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.03521</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>1.076474</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>-1.03521</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>-1.076474</v>
       </c>
     </row>
@@ -1751,27 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.996776</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>-0.996776</v>
       </c>
     </row>
@@ -1788,27 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>quant Large Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>quant Large Cap Fund</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.316779</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>-1.316779</v>
       </c>
     </row>
